--- a/data/Christian MoralesT3-2024.xlsx
+++ b/data/Christian MoralesT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I150"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>1384.19772121</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -3052,6 +3054,7 @@
         <v>1.05e-06</v>
       </c>
     </row>
+    <row r="149"/>
     <row r="150">
       <c r="D150" s="6" t="inlineStr">
         <is>
@@ -3077,7 +3080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3090,6 +3093,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3097,6 +3102,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3104,6 +3110,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3473,6 +3480,7 @@
         <v>0.00720575</v>
       </c>
     </row>
+    <row r="36"/>
     <row r="37">
       <c r="C37" s="6" t="inlineStr">
         <is>
@@ -3498,7 +3506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3511,6 +3519,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -3518,6 +3528,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3525,6 +3536,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -3621,6 +3633,7 @@
         <v>0.00027694</v>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="C16" s="6" t="inlineStr">
         <is>
